--- a/vendor_config.xlsx
+++ b/vendor_config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>Ericsson</t>
-  </si>
-  <si>
-    <t>DataRadiobearer</t>
   </si>
   <si>
     <t>dlMaxRetxThreshold</t>
@@ -85,9 +82,6 @@
   <si>
     <t>7
 2</t>
-  </si>
-  <si>
-    <t>If this parameter is set to a small value, excessive polling PDUs are sent. In addition, the number of ARQ retransmissions reaches its maximum due to consecutive PDU retransmissions, and therefore the RRC connection is reestablished. If this parameter is set to a large value, status reports cannot be sent promptly.</t>
   </si>
   <si>
     <t>tPollRetransmitDL,UL</t>
@@ -98,9 +92,6 @@
 3</t>
   </si>
   <si>
-    <t>This parameter has an impact on status reporting in AM. A low frequency of status reporting results in a low frequency of status report scheduling but a high probability that the send window size changes to 0, thereby reducing the transmission rate. A high frequency of status reporting results in a high probability of timely acknowledgment to data in the send window and therefore a high probability of rate assurance. However, a high frequency of status reporting results in a high probability of status report scheduling and repeated transmissions, thereby wasting resources.</t>
-  </si>
-  <si>
     <t>tStatusProhibitDL, UL</t>
   </si>
   <si>
@@ -212,10 +203,6 @@
     <t>tReassemblyUL</t>
   </si>
   <si>
-    <t>AM with QCI3,QCI75, QCI79: 40 ms
-High freq band: 15 ms</t>
-  </si>
-  <si>
     <t>tReassembly</t>
   </si>
   <si>
@@ -286,13 +273,159 @@
       </rPr>
       <t>s at lower layers.</t>
     </r>
+  </si>
+  <si>
+    <t>Release T5</t>
+  </si>
+  <si>
+    <t>25 ms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AM with QCI3,QCI75, QCI79: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ms
+High freq band: 15 ms</t>
+    </r>
+  </si>
+  <si>
+    <t>15 ms</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>maxRlcTransmission</t>
+  </si>
+  <si>
+    <r>
+      <t>If this parameter is set to a small value, excessive polling PDUs are sent. In addition,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the number of ARQ retransmissions reaches its maximum due to consecutive PDU retransmissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and therefore the RRC connection is reestablished. If this parameter is set to a large value, status reports cannot be sent promptly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This parameter has an impact on status reporting in AM. A low frequency of status reporting results in a low frequency of status report scheduling but a high probability that the send </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>window size changes to 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, thereby reducing the transmission rate. A high frequency of status reporting results in a high probability of timely acknowledgment to data in the send window and therefore a high probability of rate assurance. However, a high frequency of status reporting results in a high probability of status report scheduling and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>repeated transmissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, thereby wasting resources.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nếu tham số này được thiết lập quá nhỏ dẫn đến việc truyền lại HARQ vô ích từ bên phát báo cáo trạng thái bị lặp ở bên thu, do đó dẫn đến lãng phí tài nguyên.
+Nếu tham số này được thiết lập quá lớn dẫn đến độ trễ lâu cho bên thu để xác định lỗi truyền gói không theo thứ tự và dẫn đến làm tăng độ trễ báo cáo trạng thái, do đó làm tăng độ trễ dịch vụ và làm giảm throughput.</t>
+  </si>
+  <si>
+    <t>tStatusProhibit &lt;= tReassembly</t>
+  </si>
+  <si>
+    <t>tReassembly &gt;= Transmit time + time for HARQ out</t>
+  </si>
+  <si>
+    <t>maxHARQTx: 4 times?</t>
+  </si>
+  <si>
+    <t>Kiểm tra tput, tỉ lệ bị detach do đạt ngưỡng truyền lại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tPollRetx được đặt giá trị theo thời gian, các PDU được gửi có poll bit = 1 sẽ bắt đầu tPollRetx. Bên thu sẽ đợi phản hồi trong thời gian tPollRetransmit, nếu hết hạn sẽ gửi lại PDU. 
+Nếu đặt giá trị nhỏ, có thể nhận ACK sau khi timer hết hạn, dẫn gửi lại PDU. Nếu đạt ngưỡng maxRetxThreshold, kết nối RRC phải thiết lập lại --&gt; có hiện tượng bị detach.
+Nếu giá trị này đặt ở mức lớn, báo cáo trạng thái có thể không được gửi ngay lập tức --&gt; nếu có gói bị mất có thể phải truyền lại nhiều hoặc gây ra window stall do bên phát chưa nhận lại được phản hồi --&gt; gây giảm tốc độ truyền.  </t>
+  </si>
+  <si>
+    <t>maxRetxThreshold</t>
+  </si>
+  <si>
+    <t>Giá trị nhỏ hơn của tham số này giúp tiết kiệm tài nguyên vô tuyến nhưng lại làm giảm độ tin cậy của việc truyền tin. 
+Giá trị lớn hơn gây tác dụng ngược lại.</t>
+  </si>
+  <si>
+    <t>tStatusProhitbit ảnh hưởng tới tần suất gửi báo cáo trạng thái trong AM.  Tần suất báo cáo trạng thái thấp dẫn đến tần suất lập lịch báo cáo trạng thái thấp nhưng khả năng cao là kích thước của sổ truyền bị thay đổi thành 0 (window stall), dẫn đến việc đã truyền hết PDU nhưng vẫn phải đợi ACK chưa tới --&gt; do đó làm giảm tốc độ truyền.
+Tần suất lập lịch báo cáo cao giúp khả năng ghi nhận phản hồi kịp thời đối với các dữ liệu trong cửa sổ, do đó có thể đảm bảo tốc độ truyền.  Tuy nhiên, tần suất báo cáo trạng thái cao dẫn đến xác suất cao của việc lập lịch báo cáo trạng thái và truyền lặp lại, từ đó dẫn đến lãng phí tài nguyên.</t>
+  </si>
+  <si>
+    <t>Kiểm tra tput. Tỉ lệ tb_size đã gửi và tput thực tế?</t>
+  </si>
+  <si>
+    <t>Bài test</t>
+  </si>
+  <si>
+    <t>tPollRetx &gt;= tStatusProhitbit +  transmit time on PUSCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,16 +484,52 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -368,15 +537,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,14 +565,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,274 +929,421 @@
     <col min="3" max="3" width="51.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I3" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13">
+        <v>7</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="13">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="13">
+        <v>5</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="13">
+        <v>5</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="13">
+        <v>3</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
+        <v>7</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="19">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="19">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="19">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="19">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -984,78 +1352,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="109.85546875" customWidth="1"/>
+    <col min="5" max="5" width="106.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/vendor_config.xlsx
+++ b/vendor_config.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="so sánh" sheetId="1" r:id="rId1"/>
+    <sheet name="bài test" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -420,11 +421,39 @@
   <si>
     <t>tPollRetx &gt;= tStatusProhitbit +  transmit time on PUSCH</t>
   </si>
+  <si>
+    <t>ulMaxRetxThreshold, tPollRetransmitUl</t>
+  </si>
+  <si>
+    <t>tStatusProhibitDL, tReassemblyDL</t>
+  </si>
+  <si>
+    <t>Bài 2: Đứng ở vị trí tồi (RSRP &gt;= -100), đảm bảo att thành công và ổn định.  
+Sau đó thực hiện đo speed test 3 lần cho mỗi tham số thay đổi. 
+Có lấy log UE để tính tỉ lệ Throughput/tb_size (tài nguyên).</t>
+  </si>
+  <si>
+    <t>Bài 1: Đứng ở vị trí tốt (RSRP &gt;= -80), đảm bảo att thành công và ổn định.  
+Sau đó thực hiện đo speed test 3 lần cho mỗi tham số thay đổi. 
+Có lấy log UE để tính tỉ lệ Throughput/tb_size (tài nguyên).</t>
+  </si>
+  <si>
+    <t>Bài 1: Đứng ở vị trí tốt (RSRP &gt;= -80), đảm bảo att thành công và ổn định.  
+Sau đó thực hiện đo speed test 3 lần cho mỗi tham số thay đổi. 
+Có lấy log UE để tính tỉ lệ RETX_COUNT/total TX (tỉ lệ truyền lại)
+Kết hợp log L2 và tester để kiểm tra số lần UE bị out khỏi 5G.</t>
+  </si>
+  <si>
+    <t>Bài 2: Đứng ở vị trí tồi (RSRP &gt;= -100), đảm bảo att thành công và ổn định.  
+Sau đó thực hiện đo speed test 3 lần cho mỗi tham số thay đổi. 
+Có lấy log UE để tính tỉ lệ RETX_COUNT/totalTx  (tỉ lệ truyền lại)
+Kết hợp log L2 và tester để kiểm tra số lần UE bị out khỏi 5G.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -576,15 +605,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,6 +633,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -937,46 +967,46 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="6"/>
@@ -993,20 +1023,20 @@
         <v>4</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>7</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1018,20 +1048,20 @@
         <v>9</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>7</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1042,25 +1072,25 @@
       <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>5</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K5" t="s">
@@ -1077,25 +1107,25 @@
       <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>4</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>5</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1106,25 +1136,25 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>7</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>3</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="K7" t="s">
@@ -1138,25 +1168,25 @@
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>7</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>3</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1167,25 +1197,25 @@
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <v>3</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K9" t="s">
@@ -1199,25 +1229,25 @@
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>3</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1228,20 +1258,20 @@
       <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>7</v>
       </c>
       <c r="I11" s="8"/>
@@ -1250,19 +1280,19 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>6</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="8"/>
       <c r="J12" s="4" t="s">
         <v>29</v>
@@ -1272,19 +1302,19 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="8"/>
       <c r="J13" s="4" t="s">
         <v>29</v>
@@ -1294,23 +1324,23 @@
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>3</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>3</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="8"/>
       <c r="J14" s="4" t="s">
         <v>29</v>
@@ -1320,23 +1350,23 @@
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <v>3</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>2</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="8"/>
     </row>
   </sheetData>
@@ -1352,9 +1382,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
